--- a/output/nykaafashion_com_products.xlsx
+++ b/output/nykaafashion_com_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A271"/>
+  <dimension ref="A1:A309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,28 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/accessorize-london-girls-lolly-make-your-own-bead-set/p/16202586</t>
+          <t>https://nykaafashion.com/accessorize-london-women-s-black-bucket-shoulder-bag/p/17859926</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/accessorize-london-women-s-black-bucket-shoulder-bag/p/17859926</t>
+          <t>https://nykaafashion.com/accessorize-london-women-s-brown-bucket-shoulder-bag/p/17859927</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/accessorize-london-womens-faux-leather-artisan-handheld-satchel-bag/p/13618697</t>
+          <t>https://nykaafashion.com/adidas-originals-tee-dress-white-casual/p/6883185</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/aj-dezines-self-design-raw-silk-dhoti-kurta-for-boys-with-waistcoat-green-set-of-3/p/12469376</t>
+          <t>https://nykaafashion.com/adora-by-ankita-pearl-scallop-flapper-clutch-bag/p/267883</t>
         </is>
       </c>
     </row>
@@ -478,462 +478,462 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/allsaints-undergound-acid-tote/p/12728491</t>
+          <t>https://nykaafashion.com/alcis-women-black-solid-pure-cotton-sustainable-t-shirt-dress/p/5097258</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/artisan-lab-perola-lazy-susan/p/17918995</t>
+          <t>https://nykaafashion.com/alcis-women-cream-coloured-pure-cotton-solid-t-shirt-dress/p/5097259</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/athena-women-pink-floral-printed-a-line-dress/p/16467137</t>
+          <t>https://nykaafashion.com/alcis-women-yellow-solid-pure-cotton-sustainable-t-shirt-dress/p/5097260</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/autumnlane-black-vartika-embroidered-kurta-with-pant-set-of-2/p/14895293</t>
+          <t>https://nykaafashion.com/anthrilo-icecream-short-sleeves-pyjama-blue-set-of-2/p/5894123</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/autumnlane-faiza-pink-full-work-premium-pakistani-kurta-with-pant-dupatta-set-of-3/p/14349344</t>
+          <t>https://nykaafashion.com/asics-ascs-match-white-women-tennis-skort/p/5020864</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/autumnlane-saba-soft-blue-embroidered-co-ord-set-of-3/p/15947479</t>
+          <t>https://nykaafashion.com/asics-match-graphic-blue-white-women-tennis-skort/p/5020865</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/autumnlane-tuhina-azure-applique-co-ord-set-of-2/p/12127695</t>
+          <t>https://nykaafashion.com/babyzen-stroller-yoyo-stroller-pink-frame-6-color-pack-bassinet-0-3-months/p/10244945</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/azai-jewellery-by-nykaa-fashion-ethnic-green-gold-bridal-nath/p/7933341</t>
+          <t>https://nykaafashion.com/babyzen-yoyo-bag-grey-0-3-months/p/10244916</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/azai-jewellery-by-nykaa-fashion-ethnic-kundan-green-jewellery-set/p/7569226</t>
+          <t>https://nykaafashion.com/baise-gaba-rimjhim-saree/p/5053288</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/baise-gaba-eliana-saree-with-unstitched-blouse-piece-yellow-with-unstitched/p/11661655</t>
+          <t>https://nykaafashion.com/baise-gaba-zuzi-corset/p/11861876</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/baise-gaba-lyric-saree-with-unstitched-blouse/p/18809358</t>
+          <t>https://nykaafashion.com/bajo-s-100percent-cotton-300-tc-king-size-bedsheet-with-pillow-covers-pink/p/20195863</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/boult-audio-airbass-w20-with-zen-enc-mic-32h-battery-life-5-3v-bluetooth-headset-glacier-blue/p/13216511</t>
+          <t>https://nykaafashion.com/boat-rockerz-550-over-ear-bluetooth-headphones-with-upto-20-hours-playback-active-black/p/6920516</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/boult-audio-airbass-y1-tws-earbuds-40h-playtime-pro-calling-type-c-fast-charging-black/p/5654713</t>
+          <t>https://nykaafashion.com/boat-watch-xtend-rtl-with-alexa-1-69-hd-display-and-multiple-watch-faces-black/p/7702741</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/boult-audio-airbass-z40-pro-with-zen-enc-mic-100h-battery-life-5-3v-bluetooth-headset-dawn/p/13216506</t>
+          <t>https://nykaafashion.com/boult-audio-airbass-w20-with-zen-enc-mic-32h-battery-life-5-3v-bluetooth-headset-space-black/p/13216509</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/boult-audio-airbass-z40-with-zen-enc-mic-60h-playtime-low-latency-bluetooth-headset-white/p/9290961</t>
+          <t>https://nykaafashion.com/boult-audio-airbass-y1-tws-earbuds-40h-playtime-pro-calling-type-c-fast-charging-black/p/5654713</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/carlton-london-gold-plated-with-enamel-and-inline-floral-multi-color-necklace/p/14094758</t>
+          <t>https://nykaafashion.com/boult-audio-airbass-z40-pro-with-zen-enc-mic-100h-battery-life-5-3v-bluetooth-headset-dawn/p/13216506</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/carlton-london-women-victoria-green-dial-analog-watch-bracelet-clplg053-m/p/19912905</t>
+          <t>https://nykaafashion.com/boult-audio-bassbuds-x1-in-ear-wired-earphones-with-mic-black/p/1762796</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/carriall-aim-black-laptop-backpack-m/p/12665809</t>
+          <t>https://nykaafashion.com/brachy-grey-full-coverage-bras-for-women-comfy-no-underwire-plus-size-bra-high-impact-v-neck/p/17494140</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/clay-craft-fine-ceramic-tea-set-of-17/p/10544720</t>
+          <t>https://nykaafashion.com/brandonn-kids-grey-romper-costume-fancy-dress-wear/p/15578106</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/columbia-men-black-na-midweight-stretch-tight/p/9044406</t>
+          <t>https://nykaafashion.com/campus-sutra-mens-crimson-red-midnight-black-paisley-flora-shirt/p/15183812</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/columbia-trail-shaker-beanie-grey/p/5781233</t>
+          <t>https://nykaafashion.com/casagold-golden-round-mirror-32-inch/p/10687438</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/corelle-livingware-winter-frost-white-20-pcs-dinner-set-pack-of-20/p/6794344</t>
+          <t>https://nykaafashion.com/cavallo-by-linen-club-blended-linen-red-checked-casual-shirt/p/17506519</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/d-chica-tube-bralettes-for-teenager-girls-grey-and-skin-set-of-2/p/7246632</t>
+          <t>https://nykaafashion.com/cavallo-by-linen-club-mens-blended-linen-blue-checked-slim-fit-full-sleeve-casual-shirt/p/17272161</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/dailyobjects-stride-2-0-clear-magsafe-phone-case-cover/p/18971471</t>
+          <t>https://nykaafashion.com/cavallo-by-linen-club-mens-blended-linen-brown-checked-slim-fit-full-sleeve-casual-shirt/p/17272162</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/ddecor-live-beautiful-large-door-ready-made-curtain-grey/p/15608839</t>
+          <t>https://nykaafashion.com/cavallo-by-linen-club-orange-checked-blended-linen-casual-shirt/p/17506510</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/divena-sea-green-cotton-animal-print-night-suit-set-of-2/p/12530624</t>
+          <t>https://nykaafashion.com/charukriti-forest-green-cotton-handloom-saree-with-unstitched-blouse/p/2052527</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/echke-shirt-dress-with-quilted-collar-and-cuffs/p/4809415</t>
+          <t>https://nykaafashion.com/charukriti-fuchsia-muslin-jamdani-designs-saree-with-unstitched-blouse/p/17331337</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/exude-serenity-fit-and-flared-shirt-midi-dress-black/p/13820996</t>
+          <t>https://nykaafashion.com/charukriti-parrot-green-blended-silk-handwoven-saree-with-woven-zari-designs-with-unstitched/p/12833337</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fabindia-multi-mehraab-stone-photo-frame/p/20143156</t>
+          <t>https://nykaafashion.com/charukriti-yellow-handloom-with-all-over-embroidery-work-with-unstitched-blouse/p/2344853</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fablestreet-black-solid-pant-2/p/1872408</t>
+          <t>https://nykaafashion.com/cherry-jerry-girls-lavender-solid-full-length-jumpsuit-with-belt-set-of-2/p/15155781</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fablestreet-cotton-linen-stripes-shirt-blue/p/10534061</t>
+          <t>https://nykaafashion.com/chidiyaa-ivory-block-printed-mens-shirt/p/8956725</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fablestreet-linen-tie-up-sleeve-top-beige/p/5090451</t>
+          <t>https://nykaafashion.com/chumbak-classic-owl-holiday-hot-chocolate-mug/p/18441210</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fablestreet-stretchable-v-neck-livin-camisole-black/p/2026907</t>
+          <t>https://nykaafashion.com/chumbak-egypt-patchwork-yellow-comforter-single-bed/p/5123283</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fablestreet-women-polyester-white-floral-midi-dress/p/16238564</t>
+          <t>https://nykaafashion.com/clt-s-tiny-hearts-printed-full-sleeve-night-suit-set-of-2/p/4196366</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/feather-your-nest-home-decor-black-nickel-finishing-planters-with-matt-stand-for-home-office/p/12420731</t>
+          <t>https://nykaafashion.com/columbia-trail-shaker-beanie-grey/p/5781233</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fingers-2mic-karaoke-portable-speaker-with-2-wireless-mics-rgb-lights-rich-black/p/15400580</t>
+          <t>https://nykaafashion.com/d-chica-tube-bralettes-for-teenager-girls-grey-and-skin-set-of-2/p/7246632</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fingers-melo-mania-in-ear-true-wireless-earbuds-25-hours-playback-type-c-fast-charging/p/8427814</t>
+          <t>https://nykaafashion.com/dailyobjects-clove-march-crossbody-bag-regular/p/16391399</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fingers-sizezero-pods2-worlds-tiniest-tws-earbuds-with-15-hour-total-playtime/p/15401466</t>
+          <t>https://nykaafashion.com/dankotuwa-porcelain-platinum-crafted-21-pieces-dinner-set-menuna-platinum/p/10136542</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fingers-swag5-bluetooth-portable-speaker-with-rgb-lights-10-w-deep-bass/p/15400578</t>
+          <t>https://nykaafashion.com/ddecor-live-beautiful-210-tc-cotton-solid-bed-sheet-set-p0015-bold-linen-pearl/p/12290084</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/first-resort-by-ramola-bachchan-white-straight-embroidered-kurta-and-wide-leg-pants-set-of-2/p/3721339</t>
+          <t>https://nykaafashion.com/ddecor-live-beautiful-large-door-ready-made-curtain-grey/p/15608839</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fitbit-inspire-3-health-fitness-tracker-lilac-bliss-black-with-6-month-premium-membership/p/8380517</t>
+          <t>https://nykaafashion.com/ddecor-live-beautiful-syrah-cotton-136-tc-king-fitted-bedsheet-with-2-pillow-covers-orange/p/12906843</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fitbit-lversa-4-fitness-watch-wth-daily-readiness-sleep-score-call-alexa-waterfall-blue-platinum/p/8380515</t>
+          <t>https://nykaafashion.com/ddecor-live-beautiful-zion-floral-cotton-queen-bedsheet-with-2-pillow-covers-grey/p/12906914</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fitbit-sense-2-health-fitness-watch-with-ecg-sleep-score-stree-mgt-white-platinum/p/8380511</t>
+          <t>https://nykaafashion.com/doux-amour-isa-gold-handbag/p/3398263</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fitbit-versa-4-fitness-watch-with-daily-readiness-score-call-alexa-beet-juice-copper-rose/p/8380516</t>
+          <t>https://nykaafashion.com/dukiekooky-kids-black-lens-and-silver-frame-round-sunglasses/p/15463725</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fns-venice-24-pc-stainless-steel-cutlery-set-with-leatherette-box-packaging/p/6184775</t>
+          <t>https://nykaafashion.com/ellementry-dewy-glass-jug-with-wooden-lid/p/5377680</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/forever-new-juniper-flare-white-pant/p/16994139</t>
+          <t>https://nykaafashion.com/ellementry-erebus-marble-mortar-pestle/p/2286988</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/forever-new-multi-color-floral-mini-dress-and-belt-set-of-2/p/19012171</t>
+          <t>https://nykaafashion.com/ellementry-glass-water-dispenser/p/2286648</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/forever-new-navy-blue-self-design-mini-dress-and-belt-set-of-2/p/19012161</t>
+          <t>https://nykaafashion.com/ellementry-terracotta-water-bottle-with-sphere-stopper/p/2286785</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/forever-new-women-pink-cora-corsage-handbag/p/19886229</t>
+          <t>https://nykaafashion.com/featherlite-revedoux-pillow-set-of-2/p/6205567</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fossil-charter-ftw7011-black-dial-analog-digital-black-strap-smartwatch/p/1105661</t>
+          <t>https://nykaafashion.com/fingers-swag5-bluetooth-portable-speaker-with-rgb-lights-10-w-deep-bass/p/15400578</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fossil-gen-5-garrett-hr-ftw4040-full-color-display-dial-digital-silver-strap-smartwatch/p/1105654</t>
+          <t>https://nykaafashion.com/fitbit-inspire-3-health-fitness-tracker-lilac-bliss-black-with-6-month-premium-membership/p/8380517</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fossil-gen-5-julianna-hr-ftw6035-full-color-display-dial-digital-rose-gold-strap-smartwatch/p/1105639</t>
+          <t>https://nykaafashion.com/fitbit-lversa-4-fitness-watch-wth-daily-readiness-sleep-score-call-alexa-waterfall-blue-platinum/p/8380515</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/fossil-gen-5-the-carlyle-hr-ftw4025-full-color-display-dial-digital-black-strap-smartwatch/p/1105641</t>
+          <t>https://nykaafashion.com/fitbit-sense-2-health-fitness-watch-with-ecg-sleep-score-stree-mgt-white-platinum/p/8380511</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/freedom-tree-solid-handcrafted-ceramic-spice-set/p/17778098</t>
+          <t>https://nykaafashion.com/fitbit-versa-4-fitness-watch-with-daily-readiness-score-call-alexa-beet-juice-copper-rose/p/8380516</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/french-connection-smart-watches-buy-french-connection-grey-strap-silicon-smartwatch-f1-e-online-nykaa-fashion/p/1650414</t>
+          <t>https://nykaafashion.com/fitleasure-branded-bodycon-active-green-sports-dress/p/3380311</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gajra-gang-frida-farida-pink-chiffon-tie-dye-kaftan-ggffkaf01-xs/p/14926472</t>
+          <t>https://nykaafashion.com/forever-new-lettie-wrap-mini-skirt/p/18245338</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gleevers-mdf-photo-footprint-frame-12-blue/p/16835470</t>
+          <t>https://nykaafashion.com/forever-new-navy-blue-self-design-mini-dress-and-belt-set-of-2/p/19012161</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gloot-men-s-cotton-polo-t-shirt-no-curl-collar-forest-green/p/5977753</t>
+          <t>https://nykaafashion.com/forever-new-women-pink-cora-corsage-handbag/p/19886229</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gloot-men-s-cotton-polo-t-shirt-no-curl-collar-ocean-grey/p/5977752</t>
+          <t>https://nykaafashion.com/forever-new-yellow-liz-frill-sleeve-bodycon-dress/p/18876684</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gripp-0-3mm-hd-tempered-glass-screen-protector-for-iphone-16/p/19617539</t>
+          <t>https://nykaafashion.com/gajra-gang-frida-farida-pink-chiffon-tie-dye-kaftan-ggffkaf01-xs/p/14926472</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-2n1-for-iphone-15-iphone-15-plus-light-pink/p/15675868</t>
+          <t>https://nykaafashion.com/gajra-gang-frida-farida-pink-georgette-leheriya-coin-lehenga-set-ggffskd12/p/14926556</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-3n1-for-iphone-15-pro-iphone-15-pro-max-grey/p/15675872</t>
+          <t>https://nykaafashion.com/gloot-anti-odour-mens-active-sports-pants-light-grey/p/8463213</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-3n1-for-iphone-15-pro-iphone-15-pro-max-silver/p/15675873</t>
+          <t>https://nykaafashion.com/gloot-anti-stain-anti-odor-cotton-polo-with-no-curl-collar-navy-blue/p/9108707</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/guapa-hayat-pleated-mini-skirt/p/3484709</t>
+          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-2n1-for-iphone-15-iphone-15-plus-light-pink/p/15675868</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gulabo-jaipur-abaya-off-white-anarkali-set-of-3/p/12189099</t>
+          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-3n1-for-iphone-15-pro-iphone-15-pro-max-grey/p/15675872</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/gulabo-jaipur-sparrow-anarkali-beige-set-of-3/p/13123477</t>
+          <t>https://nykaafashion.com/gripp-focal-camera-lens-protector-3n1-for-iphone-15-pro-iphone-15-pro-max-silver/p/15675873</t>
         </is>
       </c>
     </row>
@@ -947,1386 +947,1652 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/hammer-ace-3-0-1-85-display-bluetooth-calling-smart-watch-with-metal-body-black/p/10708583</t>
+          <t>https://nykaafashion.com/hammer-airflow-plus-tws-earbuds-with-smart-touch-control-emerald-green/p/11820963</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/hammer-airflow-plus-tws-earbuds-with-smart-touch-control-emerald-green/p/11820963</t>
+          <t>https://nykaafashion.com/hammer-bash-2-0-over-the-ear-wireless-bluetooth-headphones-with-mic-deep-bass-grey/p/4717699</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/hammer-pulse-3-0-bluetooth-calling-smart-watch-with-multiple-watch-faces-black/p/5012048</t>
+          <t>https://nykaafashion.com/hammer-pulse-3-0-bluetooth-calling-smart-watch-multiple-watch-faces-camera-and-music-control-blue/p/8340064</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/haus-kinder-bubblegum-pink-pom-pom-pure-pure-cotton-knitted-summer-ac-blanket-for-baby/p/7866869</t>
+          <t>https://nykaafashion.com/harman-kardon-onyx-studio-7-portable-bluetooth-speaker-8hrs-playtime-wireless-dual-sound-grey/p/7503342</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/haus-kinder-gold-foil-printed-cotton-velvet-cushion-covers-bright-bliss/p/17627561</t>
+          <t>https://nykaafashion.com/haus-kinder-exotic-wings-186-tc-cotton-printed-bedsheet-king/p/12891834</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/homesake-modern-small-crystal-table-lamp-white/p/12960711</t>
+          <t>https://nykaafashion.com/hidesign-navigli-03-mens-laptop-bag-sapphire/p/15488547</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/homesake-plant-stand-metal-4-tier-rack-round-black/p/9568386</t>
+          <t>https://nykaafashion.com/homesake-modern-small-crystal-table-lamp-white/p/12960711</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/hopscotch-girls-navy-polka-print-blouse-and-shorts-set/p/18901638</t>
+          <t>https://nykaafashion.com/house-of-jamoti-pikes-spades-cotton-kurta-with-pant-and-inner-set-of-3/p/17677041</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/hosta-homes-polyester-embellished-floral-cushion-covers-pack-of-5/p/17592007</t>
+          <t>https://nykaafashion.com/imperial-knots-blue-and-ivory-persian-hand-tufted-carpet-5x8-feet/p/20540513</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/house-of-jamoti-pikes-spades-cotton-kurta-with-pant-and-inner-set-of-3/p/17677041</t>
+          <t>https://nykaafashion.com/jbl-clip-4-by-harman-bluetooth-speaker-waterproof-and-10-hours-of-playtime-without-mic-blue/p/3258487</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/jatin-malik-burgundy-peshawari-formal-shoes/p/4706074</t>
+          <t>https://nykaafashion.com/jbl-clip-4-by-harman-bluetooth-speaker-waterproof-and-10-hours-of-playtime-without-mic-green/p/3258489</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/jockey-juniors-boys-white-vests/p/9026790</t>
+          <t>https://nykaafashion.com/jbl-clip-4-by-harman-bluetooth-speaker-waterproof-and-10-hours-of-playtime-without-mic-red/p/3258488</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/jockey-sg01-girls-cotton-panty-fairy-tale-blue-depths-beetroot-pink-pack-of-3/p/16686642</t>
+          <t>https://nykaafashion.com/jockey-juniors-boys-white-vests/p/9026790</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/joker-witch-psalm-watch-bracelet-set-jwbs898/p/13329719</t>
+          <t>https://nykaafashion.com/jockey-multi-color-dark-assorted-hipster-pack-of-3-style-number-1406/p/1547677</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kaj-fine-jewellery-baby-marquise-evil-eye-nazar-bracelet-bead-in-14kt-yellow-gold/p/4447080</t>
+          <t>https://nykaafashion.com/jockey-sg01-girls-cotton-panty-fairy-tale-blue-depths-beetroot-pink-pack-of-3/p/16686642</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kavith-sainaani-white-distressed-boots/p/3578794</t>
+          <t>https://nykaafashion.com/kaj-fine-jewellery-baby-marquise-evil-eye-nazar-bracelet-bead-in-14kt-yellow-gold/p/4447080</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/khaabka-chocolate-solace-raw-silk-embroidered-cushion-cover-pack-of-2/p/19204914</t>
+          <t>https://nykaafashion.com/kisah-men-burgundy-nehru-jacket/p/15260548</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kicks-and-crawl-berry-dreams-burp-cloth-pack-of-2/p/15678740</t>
+          <t>https://nykaafashion.com/kisah-men-grey-kurta-sherwani-churidar-set-set-of-3/p/11113430</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kicks-and-crawl-fun-fruity-friends-carry-nest/p/15573898</t>
+          <t>https://nykaafashion.com/kisah-men-off-white-woven-design-indowestern-sherwani-with-trouser-set-of-2/p/19005954</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kicks-and-crawl-little-butterfly-sandals/p/16317982</t>
+          <t>https://nykaafashion.com/kookee-multi-color-moose-stainless-steel-ashtray-set-with-lid-stylish-cigarette-tray/p/20739484</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kicks-and-crawl-pink-green-merry-bright-festive-socks-set-of-2/p/17072419</t>
+          <t>https://nykaafashion.com/label-ritu-kumar-blue-floral-print-short-dress-with-tie-up-set-of-2/p/12624412</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kisah-men-burgundy-nehru-jacket/p/15260548</t>
+          <t>https://nykaafashion.com/label-ritu-kumar-ecru-cotton-crop-top/p/12624465</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/kisah-men-off-white-woven-design-indowestern-sherwani-with-trouser-set-of-2/p/19005954</t>
+          <t>https://nykaafashion.com/label-ritu-kumar-orange-geometric-print-short-dress-with-cut-outs/p/10625432</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-ritu-kumar-multi-color-danielle-maxi-dress/p/18401133</t>
+          <t>https://nykaafashion.com/label-ritu-kumar-thea-maxi-dress/p/10625414</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-ritu-kumar-v-neck-full-sleeve-embroidered-short-dress/p/9809137</t>
+          <t>https://nykaafashion.com/label-shaurya-sanadhya-black-georgette-dress/p/2193303</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-shaurya-sanadhya-black-georgette-dress/p/2193303</t>
+          <t>https://nykaafashion.com/label-shaurya-sanadhya-deep-blue-patialla-and-kurta-with-dupatta-set-of-3/p/2193151</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-shaurya-sanadhya-deep-blue-patialla-and-kurta-with-dupatta-set-of-3/p/2193151</t>
+          <t>https://nykaafashion.com/label-shaurya-sanadhya-off-white-jacket-gown-with-sequin-and-zari-work-set-of-2/p/2806123</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-shaurya-sanadhya-off-white-jacket-gown-with-sequin-and-zari-work-set-of-2/p/2806123</t>
+          <t>https://nykaafashion.com/label-shaurya-sanadhya-peach-heavy-thread-work-anarkali-and-pant-with-net-dupatta-set-of-3/p/2193087</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/label-shaurya-sanadhya-peach-heavy-thread-work-anarkali-and-pant-with-net-dupatta-set-of-3/p/2193087</t>
+          <t>https://nykaafashion.com/leather-world-expandable-pu-leather-15-6-inch-water-resistant-laptop-bag/p/6450326</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/leather-world-expandable-pu-leather-15-6-inch-water-resistant-laptop-bag/p/6450326</t>
+          <t>https://nykaafashion.com/likha-black-hand-embroidered-chikankari-kurta-pant-likckskd03/p/13165053</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/likha-black-hand-embroidered-chikankari-kurta-pant-likckskd03/p/13165053</t>
+          <t>https://nykaafashion.com/little-luxury-into-the-sun-dress/p/10422743</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/little-collars-black-stripes-kurta-and-pyjama-with-jacket-set-of-4/p/18311102</t>
+          <t>https://nykaafashion.com/little-luxury-khaki-board-shorts/p/3757480</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/little-luxury-into-the-sun-dress/p/10422743</t>
+          <t>https://nykaafashion.com/little-luxury-love-and-light-lehenga-and-choli-set-of-2/p/14490901</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/little-luxury-love-and-light-lehenga-and-choli-set-of-2/p/14490901</t>
+          <t>https://nykaafashion.com/little-luxury-oh-my-ombre-jumpsuit/p/10422739</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/little-luxury-oh-my-ombre-jumpsuit/p/10422739</t>
+          <t>https://nykaafashion.com/little-surprise-box-shiny-purple-matching-backpack-with-lunch-bag-and-stationery-pouch-set-of-3/p/20825532</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/little-luxury-the-macaw-king-kurta-set-of-3/p/3377883</t>
+          <t>https://nykaafashion.com/lush-glam-sophisticated-embroidered-kurta-pant-with-dupatta-set-of-3/p/18410021</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mabish-by-sonal-jain-pink-crop-top-with-draped-skirt-and-cape-set-of-3/p/18431713</t>
+          <t>https://nykaafashion.com/marshall-emberton-portable-bluetooth-speaker-black-and-steel/p/15179354</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/manyavar-green-viscose-blend-printed-kurta-with-pyjama-set-of-2/p/18175597</t>
+          <t>https://nykaafashion.com/masaba-beige-palm-saree-with-unstitched-bustier-and-shrug/p/19140132</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/masaba-beige-palm-saree-with-unstitched-bustier-and-shrug/p/19140132</t>
+          <t>https://nykaafashion.com/masaba-maroon-the-kokum-sherbet-lehenga-with-blouse-and-2-dupatta-set-of-4/p/17146364</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/masaba-maroon-the-kokum-sherbet-lehenga-with-blouse-and-2-dupatta-set-of-4/p/17146364</t>
+          <t>https://nykaafashion.com/masaba-red-the-gajar-halwa-lehenga-with-blouse-and-2-dupatta-set-of-4/p/17146366</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/masaba-red-the-gajar-halwa-lehenga-with-blouse-and-2-dupatta-set-of-4/p/17146366</t>
+          <t>https://nykaafashion.com/masaba-red-the-gajar-halwa-lehenga-with-blouse-and-dupatta-set-of-3/p/17146367</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/masaba-red-the-gajar-halwa-lehenga-with-blouse-and-dupatta-set-of-3/p/17146367</t>
+          <t>https://nykaafashion.com/maspar-cotsmere-emmie-300tc-cotton-hem-stitch-chinchilla-double-duvet-cover-and-2-pillow-case/p/5624942</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mason-home-artificial-jade-ficus-plant-5-5ft-green/p/16274734</t>
+          <t>https://nykaafashion.com/maspar-king-size-blue-floral-bedsheet-and-pillow-case/p/20186376</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mason-home-elm-sofa-armrest-tray-brown/p/18355632</t>
+          <t>https://nykaafashion.com/maspar-king-size-blue-geometric-duvet-cover-and-pillow-case/p/20186207</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/maspar-100percent-cotton-printed-bedsheet-with-2-pillow-covers/p/20332317</t>
+          <t>https://nykaafashion.com/metalsmith-modern-metal-wall-hanging-mirror-for-bathroom-wall-decor-living-room-brown/p/17343471</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/maspar-blue-graphic-cushion-cover/p/20186128</t>
+          <t>https://nykaafashion.com/mini-wesst-brown-casual-synthetic-leather-solid-tote-bag/p/14342798</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/maspar-colorart-windsor-550-gsm-cotton-self-jacquard-linen-4pc-face-towel-set/p/5093287</t>
+          <t>https://nykaafashion.com/miracle-digital-7-inch-ips-digital-frame-hi-def-photo-and-video-with-8gb-internal-memory/p/8507548</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/maspar-single-blue-geometric-bedsheet-and-pillow-cover/p/20186259</t>
+          <t>https://nykaafashion.com/monk-mei-mariyam-top-bottoms-white/p/3592905</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mini-wesst-brown-casual-synthetic-leather-solid-tote-bag/p/14342798</t>
+          <t>https://nykaafashion.com/monk-mei-zari-embroidered-jaal-dupatta-rani-color/p/3146303</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/miracle-digital-7-inch-ips-digital-frame-hi-def-photo-and-video-with-8gb-internal-memory/p/8507548</t>
+          <t>https://nykaafashion.com/muvazo-be-at-ease-sweatshirt/p/8206728</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/miraggio-bella-shoulder-bag-for-women-s/p/11910693</t>
+          <t>https://nykaafashion.com/muvazo-keep-it-casual-white-dress/p/8206755</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/monk-mei-mariyam-top-bottoms-white/p/3592905</t>
+          <t>https://nykaafashion.com/mvyno-amazing-case-cover-for-airpods-pro-golden-black/p/3032621</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/monk-mei-zari-embroidered-jaal-dupatta-rani-color/p/3146303</t>
+          <t>https://nykaafashion.com/mvyno-gorgeous-cover-for-iphone-13-bling-pink/p/3761627</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mvyno-gorgeous-cover-for-iphone-13-bling-pink/p/3761627</t>
+          <t>https://nykaafashion.com/mvyno-gorgeous-cover-for-iphone-13-pro-max-bling-pink/p/3761625</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mvyno-gorgeous-cover-for-iphone-13-pro-max-bling-pink/p/3761625</t>
+          <t>https://nykaafashion.com/mvyno-innovative-cover-with-back-holder-for-iphone-12-pro-lavender-hearts-holder/p/3761651</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mvyno-gorgeous-iphone-case-pink/p/12896255</t>
+          <t>https://nykaafashion.com/nestasia-insulated-travel-tumbler-with-lid-straw-pink/p/17113627</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mvyno-innovative-cover-with-back-holder-for-iphone-12-pro-lavender-hearts-holder/p/3761651</t>
+          <t>https://nykaafashion.com/nestasia-stainless-steel-insulated-sipper-bottle-pink-1200ml/p/18072471</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/mytrident-alloy-style-me-solid-blanket-double/p/18787196</t>
+          <t>https://nykaafashion.com/nestasia-stainless-steel-travel-tumbler-with-lid-straw-mint-green/p/17113626</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nautica-100percent-premium-cotton-blanket-with-pure-cotton-flannel-filling/p/19595582</t>
+          <t>https://nykaafashion.com/nestasia-tall-insulated-travel-tumbler-with-lid-straw-black/p/17113625</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nestasia-leaf-platter-with-tray-set-of-5/p/5823165</t>
+          <t>https://nykaafashion.com/nite-flite-strawberry-printed-top-with-shorts-set-of-2/p/19926764</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nuhh-beige-ecru-chanderi-kurta-and-pant-with-dupatta-inner-set-of-4/p/1012440</t>
+          <t>https://nykaafashion.com/nykd-all-day-heart-on-my-sleeve-dress-nyle102-hot-sauce/p/4803438</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nuhh-blue-kalidaar-kurta-with-cotton-came-indigo-printed-pant-with-dupatta-set-of-4/p/1018119</t>
+          <t>https://nykaafashion.com/nykd-by-nykaa-blasse-t-shirt-stopper-dress-nyat098-jet-black/p/4803456</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nuhh-light-pink-art-silk-short-kurta-with-salwar-dupatta-set-of-3/p/1012410</t>
+          <t>https://nykaafashion.com/nykd-by-nykaa-soft-cup-easy-peasy-slip-on-cami-bra-with-full-coverage-cuban-sand-nyb165/p/3986885</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/nuhh-true-not-so-blue-in-the-chanderi-kurta-pant-and-dupatta-set-of-3/p/2024358</t>
+          <t>https://nykaafashion.com/obsessions-non-shedding-contemporary-carpet-black/p/12260578</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/only-knitted-striped-vest-top/p/16927574</t>
+          <t>https://nykaafashion.com/outhouse-oh-poppi-clump-earcuff/p/4164365</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/only-pink-embroidered-jacquard-pant/p/18001959</t>
+          <t>https://nykaafashion.com/payal-singhal-purple-ikat-star-print-and-embroidered-sling-potli-bag-for-women/p/4007328</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/only-white-solid-polo-t-shirt/p/17481385</t>
+          <t>https://nykaafashion.com/pebble-astra-1-96-inch-amoled-always-on-smart-watch-pfb49-wildfire-orange/p/13754588</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/only-women-floral-relaxed-fit-pink-shirt/p/16802162</t>
+          <t>https://nykaafashion.com/pebble-comos-max-smartwatch-mint-green/p/9581129</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/outhouse-oh-poppi-clump-earcuff/p/4164365</t>
+          <t>https://nykaafashion.com/pebble-orion-max-1-91-inch-curved-display-with-ultra-thin-dial-smart-watch-midnight-gold/p/10957170</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pazzion-golden-stylish-comfortable-pure-leather-ballerina-for-women/p/3864557</t>
+          <t>https://nykaafashion.com/pebble-pico-buds-wireless-earpods-white/p/7575665</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pebble-astra-1-96-inch-amoled-always-on-smart-watch-pfb49-wildfire-orange/p/13754588</t>
+          <t>https://nykaafashion.com/plan-b-daisy-training-bras-pack-of-3/p/12516078</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pebble-comos-max-smartwatch-mint-green/p/9581129</t>
+          <t>https://nykaafashion.com/portronics-cleansify-ear-wax-cleaner-1080p-fhd-camera-with-ultra-fine-4-5mm-lens-for-kids-adults/p/6034049</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pebble-cosmos-prime-watch-in-blue-strap/p/9607164</t>
+          <t>https://nykaafashion.com/portronics-dash-40w-tws-bluetooth-portable-speaker-with-wireless-karaoke-mic-with-usb-aux-black/p/3955520</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pebble-pico-buds-wireless-earpods-white/p/7575665</t>
+          <t>https://nykaafashion.com/portronics-harmonics-z5-wireless-bluetooth-stereo-headset-with-33hrs-playtime-double-eq-mode-white/p/10170487</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/plan-b-basics-padded-camisoles-pack-of-3/p/12594239</t>
+          <t>https://nykaafashion.com/portronics-konnect-x-60w-pd-type-c-cable-for-iphones-15-type-c-smartphone-2m-white/p/15979979</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/portronics-konnect-l1-20w-type-c-to-8-pin-quick-charging-cable-1-m-length-white/p/6947553</t>
+          <t>https://nykaafashion.com/ps-kids-by-payal-singhal-african-printed-crepe-embroidered-sharara-set-of-2/p/8796466</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/portronics-power-m-20000mah-3-port-power-bank-fast-charge-por-1228-blue/p/6959009</t>
+          <t>https://nykaafashion.com/ps-kids-by-payal-singhal-cream-printed-silkmul-tunic-for-kids-girls/p/3753059</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pspeaches-off-white-floral-sharara-set-of-3/p/11650683</t>
+          <t>https://nykaafashion.com/ps-kids-by-payal-singhal-grey-printed-silkmul-tunic-for-kids-girls/p/3753061</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/puma-classics-archive-unisex-black-backpack/p/12866946</t>
+          <t>https://nykaafashion.com/ps-kids-by-payal-singhal-ivory-printed-silkmul-tunic/p/2540448</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/puma-long-sleeve-thermal-men-black-top/p/8313660</t>
+          <t>https://nykaafashion.com/pspeaches-off-white-floral-sharara-set-of-3/p/11650683</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/puma-waterbottle-1-7-l/p/20572521</t>
+          <t>https://nykaafashion.com/puma-archive-logo-bb-unisex-cap/p/3483669</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pure-home-living-dark-brown-ribbed-aluminium-planter-medium/p/14756396</t>
+          <t>https://nykaafashion.com/puma-bmw-m-motorsport-wmn-ess-womens-blue-dress/p/9408873</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pure-home-living-green-floral-shaped-ceramic-platter/p/20144941</t>
+          <t>https://nykaafashion.com/puma-classics-ribbed-sleeveless-dress-womens-beige-dress/p/10037160</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pure-home-living-set-of-4-silver-metal-dot-hammered-round-coasters/p/13245068</t>
+          <t>https://nykaafashion.com/puma-ess-slim-fit-womens-pink-dress/p/9886388</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/pure-home-living-silver-plated-croco-faux-leather-photo-frame-l/p/17279555</t>
+          <t>https://nykaafashion.com/puma-fit-training-womens-black-dress/p/9886190</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/ramo-amazing-a-lapel-pin/p/16809171</t>
+          <t>https://nykaafashion.com/puma-floral-aop-tee-dress-womens-white-dress/p/10037340</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/rosha-lior-black-table-lamp/p/20438664</t>
+          <t>https://nykaafashion.com/puma-her-high-waist-womens-blue-skirt/p/9408566</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/rozana-jaipur-2-piece-lucky-sky-set-of-2/p/8698310</t>
+          <t>https://nykaafashion.com/puma-her-polo-tee-style-womens-beige-dress/p/9408568</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/rozana-jaipur-2-piece-neet-mint-co-ord-set-of-2/p/8698329</t>
+          <t>https://nykaafashion.com/puma-plus-backpackii/p/4166978</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/rozana-jaipur-2-piece-neet-yellow-co-ord-set-of-2/p/8698330</t>
+          <t>https://nykaafashion.com/puma-waterbottle-1-7-l/p/20572521</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/rozana-jaipur-midi-nayn-green-dress-set-of-2/p/8698332</t>
+          <t>https://nykaafashion.com/puma-yoga-mat-womens-purple-fitness-mat/p/16497581</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/say-blue-color-printed-women-pure-cotton-top-pyjama-night-suit-set-of-2/p/13857529</t>
+          <t>https://nykaafashion.com/pure-home-living-blue-and-yellow-ombre-gerbera-shaped-glass-desset-plates-pack-of-2/p/14748658</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/see-designs-men-turquoise-blue-chanderi-silk-sequins-cotton-kurta/p/14954544</t>
+          <t>https://nykaafashion.com/pure-home-living-pink-artificial-peony-with-glass-vase/p/13231724</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/sg-home-vintage-photo-frame-5-x-7/p/14527813</t>
+          <t>https://nykaafashion.com/pure-home-living-set-of-8-beige-cotton-face-towel/p/10753421</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/speedo-girls-endura-brite-block-printed-all-in-one-full-body-suit-neon-pink/p/19605969</t>
+          <t>https://nykaafashion.com/pure-home-living-yellow-printed-round-faux-leather-travel-jewellery-box/p/20243915</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/stoa-paris-velvet-parisian-blush-door-curtain/p/18541914</t>
+          <t>https://nykaafashion.com/rozana-jaipur-2-piece-neet-mint-co-ord-set-of-2/p/8698329</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/stol-n-braid-design-stretchable-adjustable-belt-pack-of-2/p/20068473</t>
+          <t>https://nykaafashion.com/rozana-jaipur-midi-nayn-brown-dress-set-of-2/p/8698333</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/strauss-bicycle-wireless-security-alarm-lock-remote-black/p/16951455</t>
+          <t>https://nykaafashion.com/rozana-jaipur-tia-beige-dress/p/5578237</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/styli-three-fourth-sleeve-schiffli-shirt-midi-dress/p/12008785</t>
+          <t>https://nykaafashion.com/rozana-jaipur-tia-mustard-dress/p/5578235</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/stylo-bug-girls-kurta-pant-yellow-set-of-2/p/17079017</t>
+          <t>https://nykaafashion.com/rsvp-by-nykaa-fashion-dark-blue-floral-crop-top-pleated-midi-skirt-co-ord-set-of-2/p/15153944</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/suhani-pittie-gold-22k-gold-plated-choker-3/p/1788566</t>
+          <t>https://nykaafashion.com/rsvp-by-nykaa-fashion-white-and-teal-abstract-tie-and-dye-print-full-sleeves-satin-shirt/p/17004952</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/swish-boss-purple-pleated-blazer-dress/p/5023165</t>
+          <t>https://nykaafashion.com/saral-home-microfiber-multi-purpose-runner-grey-40x140-cm/p/7733503</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/ted-baker-sarsa-plain-crystal-bracelet/p/9689663</t>
+          <t>https://nykaafashion.com/saregama-carvaan-bhakti-plug-play-devotional-mantras-music-speaker/p/14097240</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-artment-astronaut-galaxy-light-projector-table-lamp-for-living-room-home-decor-white/p/13618539</t>
+          <t>https://nykaafashion.com/see-designs-men-turquoise-blue-chanderi-silk-sequins-cotton-kurta/p/14954544</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-better-home-11-piece-kitchen-utensils-set-light-green-silicone-with-wooden-handle/p/15997417</t>
+          <t>https://nykaafashion.com/skechers-women-side-lines-2-natural-casual-sliders/p/17084659</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-better-home-copper-bottle-950-ml-blue/p/15472079</t>
+          <t>https://nykaafashion.com/skechers-women-side-lines-2-pink-casual-sliders/p/17084660</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-better-home-salt-and-pepper-shaker-set-white-ceramic/p/15455476</t>
+          <t>https://nykaafashion.com/sleepsia-memory-foam-back-support-sleeping-bed-wedge-orthopaedic-incline-pillow-grey/p/15953594</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-decor-mart-premium-84-144-25mm-thickness-extendable-curtain-rod-with-baroque-wood-finial/p/8863082</t>
+          <t>https://nykaafashion.com/slickfix-fashion-dressing-tape-invisible-double-sided-body-tape-pack-of-18/p/6303179</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-home-story-cotton-cushion-covers-blue-gardenia-pack-of-5-12x12-inches/p/18531789</t>
+          <t>https://nykaafashion.com/sojanya-mens-jacq-silk-pink-self-design-kurta-off-white-churidar-pyjama-set-of-2/p/2421378</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/the-saree-sneakers-multi-color-rainbow-sneaker/p/1512501</t>
+          <t>https://nykaafashion.com/spaces-microfiber-quilted-pillow-filler-white/p/13055010</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/tommy-hilfiger-cherokee-unisex-polyester-20l-laptop-backpack-black/p/14916459</t>
+          <t>https://nykaafashion.com/spiky-3d-cartoon-kids-analog-watch-with-led-luminous-7-pink-glowing-disco-light/p/17218323</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/twamev-pink-art-silk-thread-embroidery-kurta-churidar-for-men-set-of-2/p/19363952</t>
+          <t>https://nykaafashion.com/studio-ekasth-thikri-silvered-mirror/p/16729439</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/twenty-dresses-by-nykaa-fashion-blue-bell-sleeves-floral-midi-dress/p/12147629</t>
+          <t>https://nykaafashion.com/stylo-bug-girls-kurta-pant-yellow-set-of-2/p/17079017</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/umai-cd-1570-color-printed-knife/p/16732610</t>
+          <t>https://nykaafashion.com/stylo-bug-girls-red-solid-ankle-length-top-with-pant-set-of-2/p/17058166</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/under-armour-sports-mask-feather-weight-black/p/18112673</t>
+          <t>https://nykaafashion.com/suhani-pittie-gold-twig-leaf-cuff/p/117980</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/united-colors-of-benetton-ming-unisex-polyester-backpack-beige-m/p/12723811</t>
+          <t>https://nykaafashion.com/tann-ed-joe-mini-cherry/p/2457682</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/united-colors-of-benetton-noble-unisex-polyester-backpack-grey-m/p/12723806</t>
+          <t>https://nykaafashion.com/ted-baker-hadeya-rose-gold-tone-crystal-heart-gift-set/p/5596290</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/urban-space-3-layer-reversible-microfiber-a-c-blanket-single-bed-france-145-x-225-cm/p/12679913</t>
+          <t>https://nykaafashion.com/the-artment-astronaut-galaxy-light-projector-table-lamp-for-living-room-home-decor-white/p/13618539</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/urban-space-sea-mist-turquoise-digital-blackout-curtains-for-door-pack-of-2-7-x-4/p/18964601</t>
+          <t>https://nykaafashion.com/the-artment-vista-frame-floor-mirror-black-square/p/18738858</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/vastramay-mens-purple-cream-viscose-sherwani-set-of-3/p/12839804</t>
+          <t>https://nykaafashion.com/the-home-talk-hand-woven-reversible-area-rugs-carpets-for-living-room-bedroom/p/14755527</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/vigneto-pink-garden-dinner-set-of-51/p/14468965</t>
+          <t>https://nykaafashion.com/the-indian-garage-co-men-slim-fit-multi-striped-full-sleeves-cutaway-collar-casual-shirt/p/19524551</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/viners-allure-6-pcs-knife-block-set-gift-box/p/16804625</t>
+          <t>https://nykaafashion.com/the-next-decor-golden-texture-fusion-glass-finish-horizontal-wall-art/p/17860421</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/voncasa-minto-cream-sparkle-20-pieces-dinner-set/p/18866777</t>
+          <t>https://nykaafashion.com/the-souled-store-solid-brown-men-utility-shirt/p/15768452</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/voyage-black-round-sunglass-for-unisex-1915mg3622/p/5245220</t>
+          <t>https://nykaafashion.com/the-white-willow-cooling-gel-ultra-slim-neck-pillow-off-white/p/7700467</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/wendell-rodricks-peach-color-blocked-shirt-dress/p/4042604</t>
+          <t>https://nykaafashion.com/tommy-hilfiger-cherokee-unisex-polyester-20l-laptop-backpack-black/p/14916459</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/wonderchef-no-drip-oil-pourer-600-ml/p/13344916</t>
+          <t>https://nykaafashion.com/tommy-hilfiger-neuman-cross-body-black/p/19645444</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/wonderchef-venice-dinner-set-blue-set-of-31/p/5777828</t>
+          <t>https://nykaafashion.com/twenty-dresses-by-nykaa-fashion-beige-square-toe-gold-studded-flats-41/p/13990049</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://nykaafashion.com/zeel-the-ultimate-backpack-friendly-black-raincoat-with-pant-set-of-2/p/16424158</t>
+          <t>https://nykaafashion.com/twenty-dresses-by-nykaa-fashion-black-frill-around-me-dress/p/5304935</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/akhilam-womens-kanjeevaram-cream-and-lavender-zari-woven-saree-with-unstitched/p/17562149</t>
+          <t>https://nykaafashion.com/twenty-dresses-by-nykaa-fashion-black-high-waist-pintuck-wide-leg-trousers/p/18108142</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/anjaneya-sarees-orange-woven-designer-cotton-silk-kanjivaram-saree-with-unstitched/p/18557143</t>
+          <t>https://nykaafashion.com/twenty-dresses-by-nykaa-fashion-maroon-and-light-peach-mandarin-collar-full-bishop-sleeves-top/p/16758566</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/autumnlane-iris-purple-embroidered-co-ord-set/p/10571399</t>
+          <t>https://nykaafashion.com/twig-twine-allure-striped-glass-votive-white-color/p/5119932</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/breathe-cotton-padded-wireless-transparent-back-bra-3-4th-coverage-nude-nyb007/p/834747</t>
+          <t>https://nykaafashion.com/twig-twine-auric-crystal-taper-candle-holder-small/p/8417596</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/breathe-cotton-padded-wireless-triangle-t-shirt-bra-3-4th-coverage-black-nyb003-1/p/834734</t>
+          <t>https://nykaafashion.com/twig-twine-auric-golden-sliver-geometric-noodle-bowls-pack-of-2/p/5466627</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/calmna-fushia-pink-schiffli-tier-dress/p/16358086</t>
+          <t>https://nykaafashion.com/twig-twine-convivial-borclicate-double-vase-set-of-2/p/7481756</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/casio-a1856-entcier-men-mtp-vd300g-1eudf-analog-watch-for-men/p/2632773</t>
+          <t>https://nykaafashion.com/u-s-polo-assn-checks-burgundy-full-sleeves-collar-neck-shirt/p/16905166</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/cider-brown-high-waist-pleated-wide-leg-pant/p/16890357</t>
+          <t>https://nykaafashion.com/umai-ceramic-table-lamp-w-fabric-shade/p/16799076</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/cider-cotton-blend-v-neck-solid-button-vest-mid-rise-pocket-wide-leg-trousers/p/19120397</t>
+          <t>https://nykaafashion.com/under-armour-sports-mask-feather-weight-black/p/18112673</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/cider-missed-your-call-cropped-blazer/p/8259336</t>
+          <t>https://nykaafashion.com/united-colors-of-benetton-noble-unisex-polyester-backpack-grey-m/p/12723806</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/cider-tie-back-pleated-wide-leg-jeans/p/17249097</t>
+          <t>https://nykaafashion.com/urban-space-spring-sage-green-cotton-bedsheet-with-2-pillow-covers-queen/p/17711676</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/cider-v-neck-toile-de-jouy-knotted-long-sleeve-crop-top/p/18706435</t>
+          <t>https://nykaafashion.com/vero-moda-beige-embroidered-print-mini-dress/p/17862852</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/daniel-klein-black-leather-watch-14/p/1491329</t>
+          <t>https://nykaafashion.com/vero-moda-dark-blue-high-rise-wide-leg-jeans/p/17863954</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/daniel-wellington-petite-evergold-st-mawes-white-analog-watch-gift-set-dw00500886/p/703223</t>
+          <t>https://nykaafashion.com/vero-moda-disney-beige-printed-front-wrap-dress-with-belt-set-of-2/p/17862838</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fablestreet-buttondown-strap-midi-dress-white/p/2962596</t>
+          <t>https://nykaafashion.com/vero-moda-pink-v-neck-top/p/17949299</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fabnest-rayon-red-fit-and-flare-knee-length-dress-with-belt-at-waist/p/444652</t>
+          <t>https://nykaafashion.com/vigneto-flower-bed-dinner-set-of-51/p/14468962</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fastrack-blue-dial-analog-watch-nm38035sl06/p/1613085</t>
+          <t>https://nykaafashion.com/voncasa-minto-cream-sparkle-20-pieces-dinner-set/p/18866777</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fastrack-grey-dial-analog-watch-nm3199nm04/p/1610575</t>
+          <t>https://nykaafashion.com/voyage-black-round-sunglass-for-unisex-1915mg3622/p/5245220</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fastrack-minimals-3255sm01-blue-dial-analog-watch-for-men/p/2129682</t>
+          <t>https://nykaafashion.com/wonderchef-gold-stanton-stainless-steel-casserole-set-3-pieces-3-7l-2-9-l-2-l-1-year-warranty/p/10154105</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/forever-new-juniper-flare-white-pant/p/16994139</t>
+          <t>https://nykaafashion.com/wonderchef-nutri-blend-activ-mixer-grinder-blender-2-unbreakable-jars-500w-red/p/14161794</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/forever-new-lea-petite-off-shoulder-jumpsuit-set-of-2/p/18964820</t>
+          <t>https://nykaafashion.com/wonderchef-nutri-cup-portable-blender-with-usb-charger-pink-300-ml/p/9607194</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/forever-new-multi-color-floral-mini-dress-and-belt-set-of-2/p/19012171</t>
+          <t>https://nykaafashion.com/wonderchef-oven-toaster-griller-10-litre-black/p/19113501</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/forever-new-navy-blue-self-design-mini-dress-and-belt-set-of-2/p/19012161</t>
+          <t>https://nykaafashion.com/wonderchef-venice-dinner-set-blue-set-of-31/p/5777828</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fossil-gen-5-garrett-hr-ftw4041-full-color-display-dial-digital-black-strap-smartwatch/p/1105653</t>
+          <t>https://www.nykaafashion.com/16800/p/2864403</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fossil-gen-5-the-carlyle-hr-ftw4025-full-color-display-dial-digital-black-strap-smartwatch/p/1105641</t>
+          <t>https://www.nykaafashion.com/20200/p/2864727</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/fossil-gen-5e-rose-gold-smartwatch-ftw6073-for-women/p/2282327</t>
+          <t>https://www.nykaafashion.com/25200/p/2864706</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/kidsville-supergirl-pink-shorts/p/633157</t>
+          <t>https://www.nykaafashion.com/25200/p/2864719</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/koskii-rani-pink-bandhani-satin-saree-with-unstitched-blouse/p/11114264</t>
+          <t>https://www.nykaafashion.com/33600/p/2864713</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/label-shaurya-sanadhya-bottle-green-velvet-a-line-kurta-set-of-3/p/8643859</t>
+          <t>https://www.nykaafashion.com/33600/p/2864737</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/lavanya-the-label-white-silk-lehenga-with-dupatta-set-of-3/p/4729993</t>
+          <t>https://www.nykaafashion.com/46200/p/2864458</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/likha-pure-kota-doria-authentic-hand-block-print-pink-saree-with-unstitched-blouse-likkota01a/p/16427878</t>
+          <t>https://www.nykaafashion.com/adidas-mould-2-sock-women-pink-running-shoes/p/17922817</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/mabish-by-sonal-jain-multi-color-frill-neck-mini-skater-dress/p/13377796</t>
+          <t>https://www.nykaafashion.com/aldo-devina-synthetic-pink-solid-heels/p/10051394</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/magre-blue-satin-shirt-dress/p/10091988</t>
+          <t>https://www.nykaafashion.com/athena-women-pink-floral-printed-a-line-dress/p/16467137</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/mathey-tissot-blue-dial-chronograph-watch-for-men-h1822chbbu/p/785953</t>
+          <t>https://www.nykaafashion.com/autumnlane-iris-purple-embroidered-co-ord-set/p/10571399</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/monjolika-fashion-red-and-orange-color-silk-embroidered-saree-with-un-stiched-blouse-set-of-2/p/2354344</t>
+          <t>https://www.nykaafashion.com/baisacrafts-burgundy-green-block-butti-print-kurta-with-pant-dupatta-set-of-3/p/15452283</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/movado-blue-round-analog-watch-3600470/p/1425444</t>
+          <t>https://www.nykaafashion.com/boat-airdopes-138-n-wireless-earbuds-with-iwp-technology-bt-v5-0-upto-15h-playback-active-black/p/1645323</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/nykd-by-nykaa-modal-akin-to-skin-padded-wired-t-shirt-bra-3-4th-coverage-nyb218-brown/p/15513882</t>
+          <t>https://www.nykaafashion.com/boat-rockerz-450-n-masaba-edition-wireless-headphone-with-upto-15h-playtime-black-star/p/1909484</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/nykd-by-nykaa-the-ultimate-strapless-bra-serenity-nyb027/p/10160850</t>
+          <t>https://www.nykaafashion.com/breathe-cotton-padded-wireless-transparent-back-bra-3-4th-coverage-nude-nyb007/p/834747</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/ordinaree-sassy-goddess-lond-dress/p/11378328</t>
+          <t>https://www.nykaafashion.com/breathe-cotton-padded-wireless-triangle-t-shirt-bra-3-4th-coverage-black-nyb003-1/p/834734</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/police-brown-dial-analog-watch-pl15002jbbn12/p/1104251</t>
+          <t>https://www.nykaafashion.com/campus-mike-n-black-running-shoes/p/2311762</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/police-navy-blue-dial-analog-watch-pl15541jbu03m/p/1104260</t>
+          <t>https://www.nykaafashion.com/carlton-london-lavender-solid-casual-b4-sandals/p/16738364</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/puma-black-active-woven-short/p/1018946</t>
+          <t>https://www.nykaafashion.com/carlton-london-white-comfort-women-s-buckle-sandals/p/14349769</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/puma-smashic-unisex-black-sneakers/p/9750190</t>
+          <t>https://www.nykaafashion.com/carlton-london-white-women-casual-sandals/p/17306604</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/puma-soft-ride-sophia-2-res-women-s-black-running-shoes/p/18414655</t>
+          <t>https://www.nykaafashion.com/carlton-london-wine-women-slip-on-flipflops/p/14857692</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/puma-unisex-galaxy-comfort-flip-flops/p/2854002</t>
+          <t>https://www.nykaafashion.com/cartoon-pop-culture/c/11789</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/puma-x-ray-2-square-unisex-superior-comfort-sneakers/p/19251006</t>
+          <t>https://www.nykaafashion.com/casio-a1856-entcier-men-mtp-vd300g-1eudf-analog-watch-for-men/p/2632773</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/ri-ritu-kumar-black-ananya-saree-with-stitched-blouse-set-of-2-with-stitched/p/10978192</t>
+          <t>https://www.nykaafashion.com/chumbak-cuddly-dog-bath-rug/p/2226936</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/the-souled-store-official-tmnt-extra-hot-women-oversized-t-shirt/p/13383602</t>
+          <t>https://www.nykaafashion.com/chumbak-mustard-morocco-rug/p/2277908</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/titan-blue-dial-analog-watch-nm1696qc03/p/1611199</t>
+          <t>https://www.nykaafashion.com/cider-brown-high-waist-pleated-wide-leg-pant/p/16890357</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/titan-off-white-rectangle-analog-couple-watch-nl19262926bm01/p/1062739</t>
+          <t>https://www.nykaafashion.com/cider-cotton-blend-v-neck-solid-button-vest-mid-rise-pocket-wide-leg-trousers/p/19120397</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-black-into-the-dazzle-classic-chunky-heels/p/89029</t>
+          <t>https://www.nykaafashion.com/cider-missed-your-call-cropped-blazer/p/8259336</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-black-look-at-me-now-flared-cullotes/p/145071</t>
+          <t>https://www.nykaafashion.com/cider-tie-back-pleated-wide-leg-jeans/p/17249097</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-black-time-for-work-backpack/p/88765</t>
+          <t>https://www.nykaafashion.com/cider-v-neck-toile-de-jouy-knotted-long-sleeve-crop-top/p/18706435</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-blue-all-i-want-is-floral-dress/p/422491</t>
+          <t>https://www.nykaafashion.com/daniel-klein-black-leather-watch-14/p/1491329</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-blue-wrapped-in-the-modern-game-formal-dress/p/140802</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-200-tc-pure-cotton-premium-spotlight-plain-bedsheet-set-bs-d-p010-3-grape/p/2890577</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-brown-love-that-casual-comfort-slingback-flats/p/169620</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-purple-cotton-1-double-bedsheet-with-2-pillow-covers/p/3358152</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-basics-purple-high-neck-short-sleeves-t-shirt/p/8597184</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-rugs-abstract-black-white-patina-41047-620/p/2890689</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-beige-solid-lapel-collar-extended-shoulder-jumpsuit/p/17217035</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-rugs-floral-black-white-optimist-54514-94/p/2890653</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-beige-square-toe-gold-studded-flats-41/p/13990049</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-rugs-floral-naturals-optimist-54514-64/p/2890649</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-black-frill-around-me-dress/p/5304935</t>
+          <t>https://www.nykaafashion.com/ddecor-live-beautiful-rugs-geometric-yellow-glow-optimist-54557-244/p/2890742</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-maroon-and-light-peach-mandarin-collar-full-bishop-sleeves-top/p/16758566</t>
+          <t>https://www.nykaafashion.com/designers/karatcart/c/7540?transaction_id=c6106ddb8800b7dfe997a5e1fa69baae</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-pink-floral-printed-v-neck-fit-and-flare-midi-wrap-dress/p/9478520</t>
+          <t>https://www.nykaafashion.com/elle-cream-women-solid-mules/p/11939448</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-grey-growing-on-me-sunglasses/p/217210</t>
+          <t>https://www.nykaafashion.com/fastrack-minimals-3255sm01-blue-dial-analog-watch-for-men/p/2129682</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-maroon-all-set-to-bow-top/p/140843</t>
+          <t>https://www.nykaafashion.com/jatriqq-attractive-wine-fendy-silk-saree-with-unstitched/p/16310473</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-multi-color-the-stripe-play-jumpsuit/p/342696</t>
+          <t>https://www.nykaafashion.com/label-shaurya-sanadhya-bottle-green-velvet-a-line-kurta-set-of-3/p/8643859</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-pink-bliss-of-the-blush-heels/p/89009</t>
+          <t>https://www.nykaafashion.com/lavanya-the-label-white-silk-lehenga-with-dupatta-set-of-3/p/4729993</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-purple-get-the-party-started-sling-bag/p/88747</t>
+          <t>https://www.nykaafashion.com/louis-philippe-men-solid-yellow-t-shirt/p/8873384</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-purple-the-summer-love-top/p/196193</t>
+          <t>https://www.nykaafashion.com/mason-home-bath-mat-black-clover-leaf/p/2269678</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.nykaafashion.com/twenty-dresses-white-pocket-full-of-florals-midi-dress/p/276519</t>
+          <t>https://www.nykaafashion.com/movado-blue-round-analog-watch-3600470/p/1425444</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>https://www.nykaafashion.com/nykd-by-nykaa-breathe-cotton-padded-wireless-transparent-back-bra-34th-coverage-rose-nyb007/p/11519845</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/nykd-by-nykaa-modal-akin-to-skin-padded-wired-t-shirt-bra-3-4th-coverage-nyb218-brown/p/15513882</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/pipa-bella-davina-gold-ring/p/260481</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/pipa-bella-gold-uparkot-clear-crystal-and-pearl-station-necklace/p/395576</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/pipa-bella-jenni-red-floral-stud-earrings/p/337123</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/pipa-bella-kreta-swarovski-pearl-link-necklace/p/260505</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/pipa-bella-orion-gold-swarovski-pearl-enamel-charm-bracelet/p/237031</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/police-brown-dial-analog-watch-pl15002jbbn12/p/1104251</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/puma-carina-slim-perf-womens-off-white-gold-sneakers/p/12852473</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/puma-carina-slim-perf-womens-off-white-pink-sneakers/p/12852474</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/puma-men-black-ess-logo-printed-t-shirt/p/18093261</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/puma-smashic-unisex-black-sneakers/p/9750190</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/qurvii-striped-drop-shoulder-a-wide-collar-top/p/19046626</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/rareism-acker-navy-blue-dress/p/12963651</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/rareism-kirv-primary-green-regular-top/p/17775246</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/rareism-ronav-primary-beige-print-maxi-dress/p/20132121</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/rareism-womens-zurumi-light-off-white-a-line-midi-dress/p/15991856</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/shoetopia-smart-high-top-casual-lace-up-multi-color-sneakers-for-women/p/16873792</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/swayam-200-tc-floral-print-cotton-fitted-double-bedsheet-with-2-pillow-cover-blue/p/2884734</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-black-into-the-dazzle-classic-chunky-heels/p/89029</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-black-look-at-me-now-flared-cullotes/p/145071</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-black-time-for-work-backpack/p/88765</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-blue-all-i-want-is-floral-dress/p/422491</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-blue-wrapped-in-the-modern-game-formal-dress/p/140802</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-brown-love-that-casual-comfort-slingback-flats/p/169620</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-by-nykaa-fashion-pink-floral-printed-v-neck-fit-and-flare-midi-wrap-dress/p/9478520</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-grey-growing-on-me-sunglasses/p/217210</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-maroon-all-set-to-bow-top/p/140843</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-multi-color-the-stripe-play-jumpsuit/p/342696</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-pink-bliss-of-the-blush-heels/p/89009</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-purple-get-the-party-started-sling-bag/p/88747</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-purple-the-summer-love-top/p/196193</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/twenty-dresses-white-pocket-full-of-florals-midi-dress/p/276519</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/u-s-polo-assn-cotton-dobby-shirt/p/8311301</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>https://www.nykaafashion.com/vero-moda-beige-embroidered-print-mini-dress/p/17862852</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/vero-moda-dark-blue-high-rise-wide-leg-jeans/p/17863954</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/vero-moda-disney-beige-printed-front-wrap-dress-with-belt-set-of-2/p/17862838</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/vero-moda-pink-v-neck-top/p/17949299</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.nykaafashion.com/welhome-lapiazza-130-gsm-brown-polyester-1-queen-bedsheet-with-2-pillow-cover/p/3274175</t>
         </is>
       </c>
     </row>
